--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema6d-Tyrobp.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.493922</v>
+        <v>55.91100466666666</v>
       </c>
       <c r="H2">
-        <v>148.481766</v>
+        <v>167.733014</v>
       </c>
       <c r="I2">
-        <v>0.7130820883536235</v>
+        <v>0.7311810562391667</v>
       </c>
       <c r="J2">
-        <v>0.7130820883536234</v>
+        <v>0.7311810562391668</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.115370666666667</v>
+        <v>1.064818666666667</v>
       </c>
       <c r="N2">
-        <v>6.346112</v>
+        <v>3.194456</v>
       </c>
       <c r="O2">
-        <v>0.001904657994071903</v>
+        <v>0.000875284542737649</v>
       </c>
       <c r="P2">
-        <v>0.001904657994071903</v>
+        <v>0.0008752845427376492</v>
       </c>
       <c r="Q2">
-        <v>104.697990777088</v>
+        <v>59.53508144115377</v>
       </c>
       <c r="R2">
-        <v>942.2819169937919</v>
+        <v>535.8157329703839</v>
       </c>
       <c r="S2">
-        <v>0.001358177500012216</v>
+        <v>0.0006399914764687303</v>
       </c>
       <c r="T2">
-        <v>0.001358177500012216</v>
+        <v>0.0006399914764687306</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.493922</v>
+        <v>55.91100466666666</v>
       </c>
       <c r="H3">
-        <v>148.481766</v>
+        <v>167.733014</v>
       </c>
       <c r="I3">
-        <v>0.7130820883536235</v>
+        <v>0.7311810562391667</v>
       </c>
       <c r="J3">
-        <v>0.7130820883536234</v>
+        <v>0.7311810562391668</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>4.472458</v>
       </c>
       <c r="O3">
-        <v>0.001342318396342648</v>
+        <v>0.001225458530480101</v>
       </c>
       <c r="P3">
-        <v>0.001342318396342648</v>
+        <v>0.001225458530480101</v>
       </c>
       <c r="Q3">
-        <v>73.786495800092</v>
+        <v>83.35320670315689</v>
       </c>
       <c r="R3">
-        <v>664.0784622008279</v>
+        <v>750.1788603284119</v>
       </c>
       <c r="S3">
-        <v>0.0009571832052995022</v>
+        <v>0.0008960320626937371</v>
       </c>
       <c r="T3">
-        <v>0.0009571832052995022</v>
+        <v>0.0008960320626937374</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.493922</v>
+        <v>55.91100466666666</v>
       </c>
       <c r="H4">
-        <v>148.481766</v>
+        <v>167.733014</v>
       </c>
       <c r="I4">
-        <v>0.7130820883536235</v>
+        <v>0.7311810562391667</v>
       </c>
       <c r="J4">
-        <v>0.7130820883536234</v>
+        <v>0.7311810562391668</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>506.0597536666667</v>
+        <v>638.5035606666667</v>
       </c>
       <c r="N4">
-        <v>1518.179261</v>
+        <v>1915.510682</v>
       </c>
       <c r="O4">
-        <v>0.4556509979492678</v>
+        <v>0.5248520848004957</v>
       </c>
       <c r="P4">
-        <v>0.4556509979492678</v>
+        <v>0.5248520848004958</v>
       </c>
       <c r="Q4">
-        <v>25046.88197531721</v>
+        <v>35699.37556011728</v>
       </c>
       <c r="R4">
-        <v>225421.9377778549</v>
+        <v>321294.3800410555</v>
       </c>
       <c r="S4">
-        <v>0.3249165651780765</v>
+        <v>0.3837619017337552</v>
       </c>
       <c r="T4">
-        <v>0.3249165651780765</v>
+        <v>0.3837619017337553</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.493922</v>
+        <v>55.91100466666666</v>
       </c>
       <c r="H5">
-        <v>148.481766</v>
+        <v>167.733014</v>
       </c>
       <c r="I5">
-        <v>0.7130820883536235</v>
+        <v>0.7311810562391667</v>
       </c>
       <c r="J5">
-        <v>0.7130820883536234</v>
+        <v>0.7311810562391668</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2770803333333333</v>
+        <v>0.137021</v>
       </c>
       <c r="N5">
-        <v>0.831241</v>
+        <v>0.411063</v>
       </c>
       <c r="O5">
-        <v>0.0002494802826754905</v>
+        <v>0.0001126317250860135</v>
       </c>
       <c r="P5">
-        <v>0.0002494802826754905</v>
+        <v>0.0001126317250860135</v>
       </c>
       <c r="Q5">
-        <v>13.713792405734</v>
+        <v>7.660981770431332</v>
       </c>
       <c r="R5">
-        <v>123.424131651606</v>
+        <v>68.94883593388199</v>
       </c>
       <c r="S5">
-        <v>0.0001778999209732911</v>
+        <v>8.235418371443077E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001778999209732911</v>
+        <v>8.235418371443081E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>49.493922</v>
+        <v>55.91100466666666</v>
       </c>
       <c r="H6">
-        <v>148.481766</v>
+        <v>167.733014</v>
       </c>
       <c r="I6">
-        <v>0.7130820883536235</v>
+        <v>0.7311810562391667</v>
       </c>
       <c r="J6">
-        <v>0.7130820883536234</v>
+        <v>0.7311810562391668</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>600.6871643333334</v>
+        <v>575.3437906666667</v>
       </c>
       <c r="N6">
-        <v>1802.061493</v>
+        <v>1726.031372</v>
       </c>
       <c r="O6">
-        <v>0.540852545377642</v>
+        <v>0.4729345404012005</v>
       </c>
       <c r="P6">
-        <v>0.540852545377642</v>
+        <v>0.4729345404012005</v>
       </c>
       <c r="Q6">
-        <v>29730.36365791518</v>
+        <v>32168.04936490169</v>
       </c>
       <c r="R6">
-        <v>267573.2729212366</v>
+        <v>289512.4442841152</v>
       </c>
       <c r="S6">
-        <v>0.3856722625492619</v>
+        <v>0.3458007767825346</v>
       </c>
       <c r="T6">
-        <v>0.3856722625492618</v>
+        <v>0.3458007767825347</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>38.609574</v>
       </c>
       <c r="I7">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221897</v>
       </c>
       <c r="J7">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221898</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2.115370666666667</v>
+        <v>1.064818666666667</v>
       </c>
       <c r="N7">
-        <v>6.346112</v>
+        <v>3.194456</v>
       </c>
       <c r="O7">
-        <v>0.001904657994071903</v>
+        <v>0.000875284542737649</v>
       </c>
       <c r="P7">
-        <v>0.001904657994071903</v>
+        <v>0.0008752845427376492</v>
       </c>
       <c r="Q7">
-        <v>27.22452009736534</v>
+        <v>13.70406503574933</v>
       </c>
       <c r="R7">
-        <v>245.020680876288</v>
+        <v>123.336585321744</v>
       </c>
       <c r="S7">
-        <v>0.0003531656182743453</v>
+        <v>0.0001473162478919547</v>
       </c>
       <c r="T7">
-        <v>0.0003531656182743453</v>
+        <v>0.0001473162478919547</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>38.609574</v>
       </c>
       <c r="I8">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221897</v>
       </c>
       <c r="J8">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221898</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>4.472458</v>
       </c>
       <c r="O8">
-        <v>0.001342318396342648</v>
+        <v>0.001225458530480101</v>
       </c>
       <c r="P8">
-        <v>0.001342318396342648</v>
+        <v>0.001225458530480101</v>
       </c>
       <c r="Q8">
         <v>19.18663312365467</v>
@@ -948,10 +948,10 @@
         <v>172.679698112892</v>
       </c>
       <c r="S8">
-        <v>0.0002488954488631845</v>
+        <v>0.0002062528741714883</v>
       </c>
       <c r="T8">
-        <v>0.0002488954488631845</v>
+        <v>0.0002062528741714883</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>38.609574</v>
       </c>
       <c r="I9">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221897</v>
       </c>
       <c r="J9">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221898</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>506.0597536666667</v>
+        <v>638.5035606666667</v>
       </c>
       <c r="N9">
-        <v>1518.179261</v>
+        <v>1915.510682</v>
       </c>
       <c r="O9">
-        <v>0.4556509979492678</v>
+        <v>0.5248520848004957</v>
       </c>
       <c r="P9">
-        <v>0.4556509979492678</v>
+        <v>0.5248520848004958</v>
       </c>
       <c r="Q9">
-        <v>6512.917169204979</v>
+        <v>8217.450158274385</v>
       </c>
       <c r="R9">
-        <v>58616.25452284481</v>
+        <v>73957.05142446946</v>
       </c>
       <c r="S9">
-        <v>0.08448774893389112</v>
+        <v>0.08833611934839583</v>
       </c>
       <c r="T9">
-        <v>0.08448774893389109</v>
+        <v>0.08833611934839587</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>38.609574</v>
       </c>
       <c r="I10">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221897</v>
       </c>
       <c r="J10">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221898</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2770803333333333</v>
+        <v>0.137021</v>
       </c>
       <c r="N10">
-        <v>0.831241</v>
+        <v>0.411063</v>
       </c>
       <c r="O10">
-        <v>0.0002494802826754905</v>
+        <v>0.0001126317250860135</v>
       </c>
       <c r="P10">
-        <v>0.0002494802826754905</v>
+        <v>0.0001126317250860135</v>
       </c>
       <c r="Q10">
-        <v>3.565984544592667</v>
+        <v>1.763440813018</v>
       </c>
       <c r="R10">
-        <v>32.093860901334</v>
+        <v>15.870967317162</v>
       </c>
       <c r="S10">
-        <v>4.625914917669039E-05</v>
+        <v>1.895667331376941E-05</v>
       </c>
       <c r="T10">
-        <v>4.625914917669039E-05</v>
+        <v>1.895667331376941E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>38.609574</v>
       </c>
       <c r="I11">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221897</v>
       </c>
       <c r="J11">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221898</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>600.6871643333334</v>
+        <v>575.3437906666667</v>
       </c>
       <c r="N11">
-        <v>1802.061493</v>
+        <v>1726.031372</v>
       </c>
       <c r="O11">
-        <v>0.540852545377642</v>
+        <v>0.4729345404012005</v>
       </c>
       <c r="P11">
-        <v>0.540852545377642</v>
+        <v>0.4729345404012005</v>
       </c>
       <c r="Q11">
-        <v>7730.758507392666</v>
+        <v>7404.592887061726</v>
       </c>
       <c r="R11">
-        <v>69576.82656653399</v>
+        <v>66641.33598355553</v>
       </c>
       <c r="S11">
-        <v>0.1002859957945487</v>
+        <v>0.07959804907841669</v>
       </c>
       <c r="T11">
-        <v>0.1002859957945486</v>
+        <v>0.07959804907841671</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.09074</v>
+        <v>0.6944773333333333</v>
       </c>
       <c r="H12">
-        <v>0.27222</v>
+        <v>2.083432</v>
       </c>
       <c r="I12">
-        <v>0.001307333629717358</v>
+        <v>0.00908208809961812</v>
       </c>
       <c r="J12">
-        <v>0.001307333629717358</v>
+        <v>0.009082088099618121</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>2.115370666666667</v>
+        <v>1.064818666666667</v>
       </c>
       <c r="N12">
-        <v>6.346112</v>
+        <v>3.194456</v>
       </c>
       <c r="O12">
-        <v>0.001904657994071903</v>
+        <v>0.000875284542737649</v>
       </c>
       <c r="P12">
-        <v>0.001904657994071903</v>
+        <v>0.0008752845427376492</v>
       </c>
       <c r="Q12">
-        <v>0.1919487342933333</v>
+        <v>0.7394924281102221</v>
       </c>
       <c r="R12">
-        <v>1.72753860864</v>
+        <v>6.655431852991999</v>
       </c>
       <c r="S12">
-        <v>2.490023448760203E-06</v>
+        <v>7.94941132937729E-06</v>
       </c>
       <c r="T12">
-        <v>2.490023448760203E-06</v>
+        <v>7.949411329377293E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.09074</v>
+        <v>0.6944773333333333</v>
       </c>
       <c r="H13">
-        <v>0.27222</v>
+        <v>2.083432</v>
       </c>
       <c r="I13">
-        <v>0.001307333629717358</v>
+        <v>0.00908208809961812</v>
       </c>
       <c r="J13">
-        <v>0.001307333629717358</v>
+        <v>0.009082088099618121</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>4.472458</v>
       </c>
       <c r="O13">
-        <v>0.001342318396342648</v>
+        <v>0.001225458530480101</v>
       </c>
       <c r="P13">
-        <v>0.001342318396342648</v>
+        <v>0.001225458530480101</v>
       </c>
       <c r="Q13">
-        <v>0.1352769463066667</v>
+        <v>1.035340235095111</v>
       </c>
       <c r="R13">
-        <v>1.21749251676</v>
+        <v>9.318062115855998</v>
       </c>
       <c r="S13">
-        <v>1.754857981327017E-06</v>
+        <v>1.112972233624883E-05</v>
       </c>
       <c r="T13">
-        <v>1.754857981327017E-06</v>
+        <v>1.112972233624884E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.09074</v>
+        <v>0.6944773333333333</v>
       </c>
       <c r="H14">
-        <v>0.27222</v>
+        <v>2.083432</v>
       </c>
       <c r="I14">
-        <v>0.001307333629717358</v>
+        <v>0.00908208809961812</v>
       </c>
       <c r="J14">
-        <v>0.001307333629717358</v>
+        <v>0.009082088099618121</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>506.0597536666667</v>
+        <v>638.5035606666667</v>
       </c>
       <c r="N14">
-        <v>1518.179261</v>
+        <v>1915.510682</v>
       </c>
       <c r="O14">
-        <v>0.4556509979492678</v>
+        <v>0.5248520848004957</v>
       </c>
       <c r="P14">
-        <v>0.4556509979492678</v>
+        <v>0.5248520848004958</v>
       </c>
       <c r="Q14">
-        <v>45.91986204771333</v>
+        <v>443.4262501356249</v>
       </c>
       <c r="R14">
-        <v>413.27875842942</v>
+        <v>3990.836251220623</v>
       </c>
       <c r="S14">
-        <v>0.0005956878730333528</v>
+        <v>0.004766752873426343</v>
       </c>
       <c r="T14">
-        <v>0.0005956878730333527</v>
+        <v>0.004766752873426344</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6944773333333333</v>
+      </c>
+      <c r="H15">
+        <v>2.083432</v>
+      </c>
+      <c r="I15">
+        <v>0.00908208809961812</v>
+      </c>
+      <c r="J15">
+        <v>0.009082088099618121</v>
+      </c>
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="F15">
+      <c r="L15">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G15">
-        <v>0.09074</v>
-      </c>
-      <c r="H15">
-        <v>0.27222</v>
-      </c>
-      <c r="I15">
-        <v>0.001307333629717358</v>
-      </c>
-      <c r="J15">
-        <v>0.001307333629717358</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
       <c r="M15">
-        <v>0.2770803333333333</v>
+        <v>0.137021</v>
       </c>
       <c r="N15">
-        <v>0.831241</v>
+        <v>0.411063</v>
       </c>
       <c r="O15">
-        <v>0.0002494802826754905</v>
+        <v>0.0001126317250860135</v>
       </c>
       <c r="P15">
-        <v>0.0002494802826754905</v>
+        <v>0.0001126317250860135</v>
       </c>
       <c r="Q15">
-        <v>0.02514226944666667</v>
+        <v>0.09515797869066664</v>
       </c>
       <c r="R15">
-        <v>0.22628042502</v>
+        <v>0.8564218082159998</v>
       </c>
       <c r="S15">
-        <v>3.261539634930616E-07</v>
+        <v>1.022931250043142E-06</v>
       </c>
       <c r="T15">
-        <v>3.261539634930615E-07</v>
+        <v>1.022931250043143E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.09074</v>
+        <v>0.6944773333333333</v>
       </c>
       <c r="H16">
-        <v>0.27222</v>
+        <v>2.083432</v>
       </c>
       <c r="I16">
-        <v>0.001307333629717358</v>
+        <v>0.00908208809961812</v>
       </c>
       <c r="J16">
-        <v>0.001307333629717358</v>
+        <v>0.009082088099618121</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>600.6871643333334</v>
+        <v>575.3437906666667</v>
       </c>
       <c r="N16">
-        <v>1802.061493</v>
+        <v>1726.031372</v>
       </c>
       <c r="O16">
-        <v>0.540852545377642</v>
+        <v>0.4729345404012005</v>
       </c>
       <c r="P16">
-        <v>0.540852545377642</v>
+        <v>0.4729345404012005</v>
       </c>
       <c r="Q16">
-        <v>54.50635329160667</v>
+        <v>399.5632214920782</v>
       </c>
       <c r="R16">
-        <v>490.55717962446</v>
+        <v>3596.068993428703</v>
       </c>
       <c r="S16">
-        <v>0.000707074721290425</v>
+        <v>0.004295233161276108</v>
       </c>
       <c r="T16">
-        <v>0.0007070747212904248</v>
+        <v>0.004295233161276109</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.555353999999999</v>
+        <v>5.954760333333334</v>
       </c>
       <c r="H17">
-        <v>19.666062</v>
+        <v>17.864281</v>
       </c>
       <c r="I17">
-        <v>0.0944460517842429</v>
+        <v>0.07787389935372697</v>
       </c>
       <c r="J17">
-        <v>0.09444605178424288</v>
+        <v>0.077873899353727</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>2.115370666666667</v>
+        <v>1.064818666666667</v>
       </c>
       <c r="N17">
-        <v>6.346112</v>
+        <v>3.194456</v>
       </c>
       <c r="O17">
-        <v>0.001904657994071903</v>
+        <v>0.000875284542737649</v>
       </c>
       <c r="P17">
-        <v>0.001904657994071903</v>
+        <v>0.0008752845427376492</v>
       </c>
       <c r="Q17">
-        <v>13.867003561216</v>
+        <v>6.340739958459555</v>
       </c>
       <c r="R17">
-        <v>124.803032050944</v>
+        <v>57.066659626136</v>
       </c>
       <c r="S17">
-        <v>0.0001798874275393871</v>
+        <v>6.816182038702462E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001798874275393871</v>
+        <v>6.816182038702466E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.555353999999999</v>
+        <v>5.954760333333334</v>
       </c>
       <c r="H18">
-        <v>19.666062</v>
+        <v>17.864281</v>
       </c>
       <c r="I18">
-        <v>0.0944460517842429</v>
+        <v>0.07787389935372697</v>
       </c>
       <c r="J18">
-        <v>0.09444605178424288</v>
+        <v>0.077873899353727</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>4.472458</v>
       </c>
       <c r="O18">
-        <v>0.001342318396342648</v>
+        <v>0.001225458530480101</v>
       </c>
       <c r="P18">
-        <v>0.001342318396342648</v>
+        <v>0.001225458530480101</v>
       </c>
       <c r="Q18">
-        <v>9.772848480043997</v>
+        <v>8.877471830299777</v>
       </c>
       <c r="R18">
-        <v>87.95563632039598</v>
+        <v>79.897246472698</v>
       </c>
       <c r="S18">
-        <v>0.0001267766727719196</v>
+        <v>9.543123426477352E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001267766727719196</v>
+        <v>9.543123426477357E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.555353999999999</v>
+        <v>5.954760333333334</v>
       </c>
       <c r="H19">
-        <v>19.666062</v>
+        <v>17.864281</v>
       </c>
       <c r="I19">
-        <v>0.0944460517842429</v>
+        <v>0.07787389935372697</v>
       </c>
       <c r="J19">
-        <v>0.09444605178424288</v>
+        <v>0.077873899353727</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>506.0597536666667</v>
+        <v>638.5035606666667</v>
       </c>
       <c r="N19">
-        <v>1518.179261</v>
+        <v>1915.510682</v>
       </c>
       <c r="O19">
-        <v>0.4556509979492678</v>
+        <v>0.5248520848004957</v>
       </c>
       <c r="P19">
-        <v>0.4556509979492678</v>
+        <v>0.5248520848004958</v>
       </c>
       <c r="Q19">
-        <v>3317.400830437797</v>
+        <v>3802.13567574996</v>
       </c>
       <c r="R19">
-        <v>29856.60747394018</v>
+        <v>34219.22108174965</v>
       </c>
       <c r="S19">
-        <v>0.0430344377478585</v>
+        <v>0.04087227842734758</v>
       </c>
       <c r="T19">
-        <v>0.0430344377478585</v>
+        <v>0.0408722784273476</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.555353999999999</v>
+        <v>5.954760333333334</v>
       </c>
       <c r="H20">
-        <v>19.666062</v>
+        <v>17.864281</v>
       </c>
       <c r="I20">
-        <v>0.0944460517842429</v>
+        <v>0.07787389935372697</v>
       </c>
       <c r="J20">
-        <v>0.09444605178424288</v>
+        <v>0.077873899353727</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.2770803333333333</v>
+        <v>0.137021</v>
       </c>
       <c r="N20">
-        <v>0.831241</v>
+        <v>0.411063</v>
       </c>
       <c r="O20">
-        <v>0.0002494802826754905</v>
+        <v>0.0001126317250860135</v>
       </c>
       <c r="P20">
-        <v>0.0002494802826754905</v>
+        <v>0.0001126317250860135</v>
       </c>
       <c r="Q20">
-        <v>1.816359671437999</v>
+        <v>0.8159272156336665</v>
       </c>
       <c r="R20">
-        <v>16.347237042942</v>
+        <v>7.343344940703</v>
       </c>
       <c r="S20">
-        <v>2.356242769671693E-05</v>
+        <v>8.771071623384859E-06</v>
       </c>
       <c r="T20">
-        <v>2.356242769671693E-05</v>
+        <v>8.771071623384864E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.555353999999999</v>
+        <v>5.954760333333334</v>
       </c>
       <c r="H21">
-        <v>19.666062</v>
+        <v>17.864281</v>
       </c>
       <c r="I21">
-        <v>0.0944460517842429</v>
+        <v>0.07787389935372697</v>
       </c>
       <c r="J21">
-        <v>0.09444605178424288</v>
+        <v>0.077873899353727</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>600.6871643333334</v>
+        <v>575.3437906666667</v>
       </c>
       <c r="N21">
-        <v>1802.061493</v>
+        <v>1726.031372</v>
       </c>
       <c r="O21">
-        <v>0.540852545377642</v>
+        <v>0.4729345404012005</v>
       </c>
       <c r="P21">
-        <v>0.540852545377642</v>
+        <v>0.4729345404012005</v>
       </c>
       <c r="Q21">
-        <v>3937.717005461173</v>
+        <v>3426.034382691504</v>
       </c>
       <c r="R21">
-        <v>35439.45304915056</v>
+        <v>30834.30944422353</v>
       </c>
       <c r="S21">
-        <v>0.05108138750837636</v>
+        <v>0.03682925680010421</v>
       </c>
       <c r="T21">
-        <v>0.05108138750837635</v>
+        <v>0.03682925680010422</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3985753333333333</v>
+        <v>1.036602666666667</v>
       </c>
       <c r="H22">
-        <v>1.195726</v>
+        <v>3.109808</v>
       </c>
       <c r="I22">
-        <v>0.005742461287662251</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="J22">
-        <v>0.005742461287662249</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>2.115370666666667</v>
+        <v>1.064818666666667</v>
       </c>
       <c r="N22">
-        <v>6.346112</v>
+        <v>3.194456</v>
       </c>
       <c r="O22">
-        <v>0.001904657994071903</v>
+        <v>0.000875284542737649</v>
       </c>
       <c r="P22">
-        <v>0.001904657994071903</v>
+        <v>0.0008752845427376492</v>
       </c>
       <c r="Q22">
-        <v>0.8431345685902223</v>
+        <v>1.103793869383111</v>
       </c>
       <c r="R22">
-        <v>7.588211117312</v>
+        <v>9.934144824448</v>
       </c>
       <c r="S22">
-        <v>1.093742479719434E-05</v>
+        <v>1.186558666056206E-05</v>
       </c>
       <c r="T22">
-        <v>1.093742479719434E-05</v>
+        <v>1.186558666056206E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3985753333333333</v>
+        <v>1.036602666666667</v>
       </c>
       <c r="H23">
-        <v>1.195726</v>
+        <v>3.109808</v>
       </c>
       <c r="I23">
-        <v>0.005742461287662251</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="J23">
-        <v>0.005742461287662249</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>4.472458</v>
       </c>
       <c r="O23">
-        <v>0.001342318396342648</v>
+        <v>0.001225458530480101</v>
       </c>
       <c r="P23">
-        <v>0.001342318396342648</v>
+        <v>0.001225458530480101</v>
       </c>
       <c r="Q23">
-        <v>0.5942038127231111</v>
+        <v>1.545387296451556</v>
       </c>
       <c r="R23">
-        <v>5.347834314508</v>
+        <v>13.908485668064</v>
       </c>
       <c r="S23">
-        <v>7.708211426714528E-06</v>
+        <v>1.661263701385277E-05</v>
       </c>
       <c r="T23">
-        <v>7.708211426714528E-06</v>
+        <v>1.661263701385278E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3985753333333333</v>
+        <v>1.036602666666667</v>
       </c>
       <c r="H24">
-        <v>1.195726</v>
+        <v>3.109808</v>
       </c>
       <c r="I24">
-        <v>0.005742461287662251</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="J24">
-        <v>0.005742461287662249</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>506.0597536666667</v>
+        <v>638.5035606666667</v>
       </c>
       <c r="N24">
-        <v>1518.179261</v>
+        <v>1915.510682</v>
       </c>
       <c r="O24">
-        <v>0.4556509979492678</v>
+        <v>0.5248520848004957</v>
       </c>
       <c r="P24">
-        <v>0.4556509979492678</v>
+        <v>0.5248520848004958</v>
       </c>
       <c r="Q24">
-        <v>201.7029350042762</v>
+        <v>661.8744936632285</v>
       </c>
       <c r="R24">
-        <v>1815.326415038486</v>
+        <v>5956.870442969056</v>
       </c>
       <c r="S24">
-        <v>0.002616558216408342</v>
+        <v>0.007115032417570734</v>
       </c>
       <c r="T24">
-        <v>0.002616558216408341</v>
+        <v>0.007115032417570737</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3985753333333333</v>
+        <v>1.036602666666667</v>
       </c>
       <c r="H25">
-        <v>1.195726</v>
+        <v>3.109808</v>
       </c>
       <c r="I25">
-        <v>0.005742461287662251</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="J25">
-        <v>0.005742461287662249</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.2770803333333333</v>
+        <v>0.137021</v>
       </c>
       <c r="N25">
-        <v>0.831241</v>
+        <v>0.411063</v>
       </c>
       <c r="O25">
-        <v>0.0002494802826754905</v>
+        <v>0.0001126317250860135</v>
       </c>
       <c r="P25">
-        <v>0.0002494802826754905</v>
+        <v>0.0001126317250860135</v>
       </c>
       <c r="Q25">
-        <v>0.1104373862184444</v>
+        <v>0.1420363339893333</v>
       </c>
       <c r="R25">
-        <v>0.9939364759660001</v>
+        <v>1.278327005904</v>
       </c>
       <c r="S25">
-        <v>1.432630865299039E-06</v>
+        <v>1.526865184385267E-06</v>
       </c>
       <c r="T25">
-        <v>1.432630865299039E-06</v>
+        <v>1.526865184385267E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.3985753333333333</v>
+        <v>1.036602666666667</v>
       </c>
       <c r="H26">
-        <v>1.195726</v>
+        <v>3.109808</v>
       </c>
       <c r="I26">
-        <v>0.005742461287662251</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="J26">
-        <v>0.005742461287662249</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>600.6871643333334</v>
+        <v>575.3437906666667</v>
       </c>
       <c r="N26">
-        <v>1802.061493</v>
+        <v>1726.031372</v>
       </c>
       <c r="O26">
-        <v>0.540852545377642</v>
+        <v>0.4729345404012005</v>
       </c>
       <c r="P26">
-        <v>0.540852545377642</v>
+        <v>0.4729345404012005</v>
       </c>
       <c r="Q26">
-        <v>239.4190867532131</v>
+        <v>596.4029076551752</v>
       </c>
       <c r="R26">
-        <v>2154.771780778918</v>
+        <v>5367.626168896576</v>
       </c>
       <c r="S26">
-        <v>0.0031058248041647</v>
+        <v>0.006411224578868777</v>
       </c>
       <c r="T26">
-        <v>0.003105824804164699</v>
+        <v>0.006411224578868778</v>
       </c>
     </row>
   </sheetData>
